--- a/biology/Zoologie/Dendroxena_quadrimaculata/Dendroxena_quadrimaculata.xlsx
+++ b/biology/Zoologie/Dendroxena_quadrimaculata/Dendroxena_quadrimaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendroxena quadrimaculata, le Silphe à quatre points, est une espèce d'insectes coléoptères de la famille des silphidés, du genre Dendroxena.
 Cet insecte aplati se rencontre dans les bois de chêne et se nourrit de chenilles en particulier de chenilles processionnaires. On observe des pics de population au printemps et en automne. Il hiverne à l'état adulte dans les talus.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Peltis maculata Geoffroy in Fourcroy, 1785
 Silpha flavicans Goeze, 1777
